--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_6.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9697178814290615</v>
+        <v>0.9801559008304895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7903208228353007</v>
+        <v>0.7765015707264591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9865547933912057</v>
+        <v>0.6311010996553035</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9169154821457565</v>
+        <v>0.8814755852197509</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9572404808298609</v>
+        <v>0.900321279407187</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2024966663202006</v>
+        <v>0.1326975825201915</v>
       </c>
       <c r="H2" t="n">
-        <v>1.402125623184179</v>
+        <v>1.494535025667808</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1088493258136529</v>
+        <v>0.5000950187097174</v>
       </c>
       <c r="J2" t="n">
-        <v>1.151318625033931</v>
+        <v>0.3244472022585977</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6300839754237919</v>
+        <v>0.4122710893659597</v>
       </c>
       <c r="L2" t="n">
-        <v>1.018048147228743</v>
+        <v>0.5052451007637799</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4499962958960892</v>
+        <v>0.3642767938260568</v>
       </c>
       <c r="N2" t="n">
-        <v>1.014832058075562</v>
+        <v>1.009719558776903</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4691535698331353</v>
+        <v>0.3797848110961503</v>
       </c>
       <c r="P2" t="n">
-        <v>149.1940637103747</v>
+        <v>150.0393651108845</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1719989257533</v>
+        <v>239.0173003262631</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.969943528154566</v>
+        <v>0.9804893448343946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7903208094557129</v>
+        <v>0.7764181478769717</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9865396416965958</v>
+        <v>0.6389841123924124</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9176969327782205</v>
+        <v>0.8830757814423035</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9576037543262834</v>
+        <v>0.902142685983668</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2009877656277445</v>
+        <v>0.1304678409307092</v>
       </c>
       <c r="H3" t="n">
-        <v>1.402125712653544</v>
+        <v>1.495092874646456</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1089719904770686</v>
+        <v>0.4894084718033161</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1404899087949</v>
+        <v>0.3200668457857602</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6247309496359843</v>
+        <v>0.4047377535747467</v>
       </c>
       <c r="L3" t="n">
-        <v>1.022959102067104</v>
+        <v>0.5016628322204936</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4483165908459607</v>
+        <v>0.3612033235322028</v>
       </c>
       <c r="N3" t="n">
-        <v>1.014721537230417</v>
+        <v>1.009556239264786</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4674023562615541</v>
+        <v>0.3765804968089264</v>
       </c>
       <c r="P3" t="n">
-        <v>149.2090224805984</v>
+        <v>150.0732570244758</v>
       </c>
       <c r="Q3" t="n">
-        <v>238.1869576959771</v>
+        <v>239.0511922398544</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9701909978036413</v>
+        <v>0.9808508575617411</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7903170923919787</v>
+        <v>0.7763170529869348</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9865241006215156</v>
+        <v>0.6476027382600321</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9185660144471151</v>
+        <v>0.8848369933712877</v>
       </c>
       <c r="F4" t="n">
-        <v>0.958008124705096</v>
+        <v>0.9041379902279201</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1993329349448855</v>
+        <v>0.1280504036583307</v>
       </c>
       <c r="H4" t="n">
-        <v>1.40215056867585</v>
+        <v>1.495768896641633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1090978074759527</v>
+        <v>0.477724696491186</v>
       </c>
       <c r="J4" t="n">
-        <v>1.128446871922143</v>
+        <v>0.3152457269976787</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6187723396990477</v>
+        <v>0.3964851772023565</v>
       </c>
       <c r="L4" t="n">
-        <v>1.028344512452565</v>
+        <v>0.4976816601389574</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4464671711838235</v>
+        <v>0.3578413107207309</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01460032760638</v>
+        <v>1.009379171806494</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4654742029755732</v>
+        <v>0.3730753561517441</v>
       </c>
       <c r="P4" t="n">
-        <v>149.2255576246117</v>
+        <v>150.1106626279845</v>
       </c>
       <c r="Q4" t="n">
-        <v>238.2034928399904</v>
+        <v>239.0885978433631</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.97046206893202</v>
+        <v>0.9812413517551761</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7903083822710307</v>
+        <v>0.7761943025576958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9865084488728069</v>
+        <v>0.6570040878695224</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9195330213019601</v>
+        <v>0.8867732952843025</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9584585088054932</v>
+        <v>0.9063194548459591</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1975202810612482</v>
+        <v>0.1254391671887701</v>
       </c>
       <c r="H5" t="n">
-        <v>1.402208813294735</v>
+        <v>1.496589729327167</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1092245204632891</v>
+        <v>0.4649798276274905</v>
       </c>
       <c r="J5" t="n">
-        <v>1.115046866346233</v>
+        <v>0.309945319148626</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6121356934047609</v>
+        <v>0.3874626417088873</v>
       </c>
       <c r="L5" t="n">
-        <v>1.034245154582444</v>
+        <v>0.4932595170706647</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4444325382566495</v>
+        <v>0.3541739222313948</v>
       </c>
       <c r="N5" t="n">
-        <v>1.014467558074113</v>
+        <v>1.009187909344404</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4633529515124187</v>
+        <v>0.3692518393418763</v>
       </c>
       <c r="P5" t="n">
-        <v>149.2438280219908</v>
+        <v>150.1518687230444</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.2217632373694</v>
+        <v>239.1298039384231</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9707583107705762</v>
+        <v>0.9816615104991312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7902929613156219</v>
+        <v>0.7760450177626084</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9864930449256497</v>
+        <v>0.6672352900764251</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9206087104257299</v>
+        <v>0.8888995849302185</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9589600630491327</v>
+        <v>0.9086998567213286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1955393105227552</v>
+        <v>0.1226295637332898</v>
       </c>
       <c r="H6" t="n">
-        <v>1.402311933294561</v>
+        <v>1.49758799743931</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1093492273057878</v>
+        <v>0.4511099753338049</v>
       </c>
       <c r="J6" t="n">
-        <v>1.10014082903715</v>
+        <v>0.30412484133325</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6047450281714691</v>
+        <v>0.3776173019166942</v>
       </c>
       <c r="L6" t="n">
-        <v>1.040700037878731</v>
+        <v>0.488341836110327</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4421982706012713</v>
+        <v>0.3501850421324272</v>
       </c>
       <c r="N6" t="n">
-        <v>1.014322460030738</v>
+        <v>1.008982117306548</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4610235664573794</v>
+        <v>0.3650931443589754</v>
       </c>
       <c r="P6" t="n">
-        <v>149.2639876858544</v>
+        <v>150.1971742896001</v>
       </c>
       <c r="Q6" t="n">
-        <v>238.2419229012331</v>
+        <v>239.1751095049787</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9710812835913318</v>
+        <v>0.982111393298732</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7902686936579344</v>
+        <v>0.7758632907772606</v>
       </c>
       <c r="D7" t="n">
-        <v>0.986478343419447</v>
+        <v>0.6783359761996894</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9218052631119685</v>
+        <v>0.891231914122156</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9595186399336947</v>
+        <v>0.9112908675704617</v>
       </c>
       <c r="G7" t="n">
-        <v>0.193379589783209</v>
+        <v>0.1196211953808389</v>
       </c>
       <c r="H7" t="n">
-        <v>1.40247421123326</v>
+        <v>1.498803206627107</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1094682473465478</v>
+        <v>0.4360614137107766</v>
       </c>
       <c r="J7" t="n">
-        <v>1.083559961396831</v>
+        <v>0.2977403535256267</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5965141043716895</v>
+        <v>0.3669008836182016</v>
       </c>
       <c r="L7" t="n">
-        <v>1.047748816170688</v>
+        <v>0.4828823564940727</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4397494625161116</v>
+        <v>0.345862971971327</v>
       </c>
       <c r="N7" t="n">
-        <v>1.014164269261389</v>
+        <v>1.00876176654756</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4584705075423028</v>
+        <v>0.3605870747231986</v>
       </c>
       <c r="P7" t="n">
-        <v>149.2862004704559</v>
+        <v>150.2468504685274</v>
       </c>
       <c r="Q7" t="n">
-        <v>238.2641356858345</v>
+        <v>239.224785683906</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9714324712149538</v>
+        <v>0.9825903052010503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.790232956948669</v>
+        <v>0.7756416868370851</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9864653139987233</v>
+        <v>0.6903406297200883</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9231361256685147</v>
+        <v>0.8937857596465331</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9601408282359296</v>
+        <v>0.9141033571456099</v>
       </c>
       <c r="G8" t="n">
-        <v>0.191031196526979</v>
+        <v>0.1164187092848499</v>
       </c>
       <c r="H8" t="n">
-        <v>1.40271318277267</v>
+        <v>1.500285073195452</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1095737305646778</v>
+        <v>0.4197873954871443</v>
       </c>
       <c r="J8" t="n">
-        <v>1.065117935273506</v>
+        <v>0.2907494897705005</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5873458329190916</v>
+        <v>0.355268429528895</v>
       </c>
       <c r="L8" t="n">
-        <v>1.055416122342919</v>
+        <v>0.4768093449732475</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4370711572810302</v>
+        <v>0.3412018600254838</v>
       </c>
       <c r="N8" t="n">
-        <v>1.013992258996757</v>
+        <v>1.008527197452547</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4556781813085079</v>
+        <v>0.355727529591989</v>
       </c>
       <c r="P8" t="n">
-        <v>149.3106370633417</v>
+        <v>150.3011240478264</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.2885722787203</v>
+        <v>239.279059263205</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9718130178237473</v>
+        <v>0.9830964718882318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7901821512757998</v>
+        <v>0.7753712245203358</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9864547845622177</v>
+        <v>0.7032693944995185</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9246160423815322</v>
+        <v>0.8965772108550757</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9608337881001152</v>
+        <v>0.9171458953541871</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1884864796017205</v>
+        <v>0.1130339703169843</v>
       </c>
       <c r="H9" t="n">
-        <v>1.403052920541084</v>
+        <v>1.50209365595292</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1096589744808315</v>
+        <v>0.4022606127880871</v>
       </c>
       <c r="J9" t="n">
-        <v>1.044610436172588</v>
+        <v>0.2831082072842531</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5771347053267099</v>
+        <v>0.3426844945202214</v>
       </c>
       <c r="L9" t="n">
-        <v>1.063736964313132</v>
+        <v>0.4700583478954726</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4341502960977</v>
+        <v>0.3362052502817056</v>
       </c>
       <c r="N9" t="n">
-        <v>1.013805868821022</v>
+        <v>1.008279279075152</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4526329730175871</v>
+        <v>0.35051820382701</v>
       </c>
       <c r="P9" t="n">
-        <v>149.3374580018347</v>
+        <v>150.3601337663468</v>
       </c>
       <c r="Q9" t="n">
-        <v>238.3153932172133</v>
+        <v>239.3380689817255</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9722239587917284</v>
+        <v>0.9836269021970481</v>
       </c>
       <c r="C10" t="n">
-        <v>0.790112023951441</v>
+        <v>0.7750407223785734</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9864481748171197</v>
+        <v>0.7171286236074594</v>
       </c>
       <c r="E10" t="n">
-        <v>0.926261891728314</v>
+        <v>0.8996230348545511</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9616058457319654</v>
+        <v>0.9204251396958687</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1857385154566215</v>
+        <v>0.1094869803995226</v>
       </c>
       <c r="H10" t="n">
-        <v>1.403521862281979</v>
+        <v>1.504303725296708</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1097124854694436</v>
+        <v>0.3834724531227646</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02180357569018</v>
+        <v>0.2747706080053699</v>
       </c>
       <c r="K10" t="n">
-        <v>0.565758030579812</v>
+        <v>0.3291215431801364</v>
       </c>
       <c r="L10" t="n">
-        <v>1.072738881143043</v>
+        <v>0.4625586568905869</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4309739150535929</v>
+        <v>0.3308881690231952</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013604591612215</v>
+        <v>1.008019476474915</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4493213668564172</v>
+        <v>0.3449747634114494</v>
       </c>
       <c r="P10" t="n">
-        <v>149.3668308505093</v>
+        <v>150.4238992745116</v>
       </c>
       <c r="Q10" t="n">
-        <v>238.344766065888</v>
+        <v>239.4018344898902</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9726654287688734</v>
+        <v>0.9841766019389553</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7900170200849086</v>
+        <v>0.7746363561272125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9864473552901211</v>
+        <v>0.7318993745391495</v>
       </c>
       <c r="E11" t="n">
-        <v>0.928090938168456</v>
+        <v>0.902938393949976</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9624656326661504</v>
+        <v>0.9239429092851581</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1827864036866705</v>
+        <v>0.1058111356942548</v>
       </c>
       <c r="H11" t="n">
-        <v>1.404157153574934</v>
+        <v>1.507007724281493</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1097191201730869</v>
+        <v>0.3634485957552366</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9964581167891405</v>
+        <v>0.2656951868359209</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5530886184811137</v>
+        <v>0.314572051652861</v>
       </c>
       <c r="L11" t="n">
-        <v>1.082431837630221</v>
+        <v>0.4542200855146063</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4275352660151798</v>
+        <v>0.3252862365582885</v>
       </c>
       <c r="N11" t="n">
-        <v>1.013388361419327</v>
+        <v>1.007750235785001</v>
       </c>
       <c r="O11" t="n">
-        <v>0.445736327409454</v>
+        <v>0.3391343450839127</v>
       </c>
       <c r="P11" t="n">
-        <v>149.3988740016199</v>
+        <v>150.4921990255758</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.3768092169985</v>
+        <v>239.4701342409545</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9731371674410513</v>
+        <v>0.9847384762479857</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7898900139405847</v>
+        <v>0.774141209841929</v>
       </c>
       <c r="D12" t="n">
-        <v>0.986454635091781</v>
+        <v>0.7475322743142085</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9301232191646625</v>
+        <v>0.906538711757694</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9634232047750425</v>
+        <v>0.9276963731915285</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1796318850136608</v>
+        <v>0.1020538796025745</v>
       </c>
       <c r="H12" t="n">
-        <v>1.405006444246837</v>
+        <v>1.510318769771122</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1096601845593927</v>
+        <v>0.3422559727948801</v>
       </c>
       <c r="J12" t="n">
-        <v>0.968296396378849</v>
+        <v>0.2558397233677263</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5389782904691209</v>
+        <v>0.2990477286642421</v>
       </c>
       <c r="L12" t="n">
-        <v>1.09281726388406</v>
+        <v>0.4449511909436111</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4238300190095798</v>
+        <v>0.3194587291068667</v>
       </c>
       <c r="N12" t="n">
-        <v>1.013157305743159</v>
+        <v>1.007475032041803</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4418733403679069</v>
+        <v>0.3330587485756805</v>
       </c>
       <c r="P12" t="n">
-        <v>149.4336912107752</v>
+        <v>150.5645087475303</v>
       </c>
       <c r="Q12" t="n">
-        <v>238.4116264261538</v>
+        <v>239.542443962909</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9736375343238938</v>
+        <v>0.9853023056530024</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7897221052756102</v>
+        <v>0.7735344321828141</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9864730882402759</v>
+        <v>0.7639394635059278</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9323794681942781</v>
+        <v>0.9104368333988262</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9644891553170278</v>
+        <v>0.931675160069784</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1762859293641153</v>
+        <v>0.09828354977503259</v>
       </c>
       <c r="H13" t="n">
-        <v>1.40612925026267</v>
+        <v>1.514376294771578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1095107920783956</v>
+        <v>0.3200136902124711</v>
       </c>
       <c r="J13" t="n">
-        <v>0.937031106555921</v>
+        <v>0.2451690555321252</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5232709493171583</v>
+        <v>0.2825914700877083</v>
       </c>
       <c r="L13" t="n">
-        <v>1.103880028153071</v>
+        <v>0.434650798554732</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4198641796630374</v>
+        <v>0.3135020729995778</v>
       </c>
       <c r="N13" t="n">
-        <v>1.012912228086256</v>
+        <v>1.00719887070057</v>
       </c>
       <c r="O13" t="n">
-        <v>0.437738667029963</v>
+        <v>0.3268485052859262</v>
       </c>
       <c r="P13" t="n">
-        <v>149.4712960070342</v>
+        <v>150.6397972259687</v>
       </c>
       <c r="Q13" t="n">
-        <v>238.4492312224128</v>
+        <v>239.6177324413474</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9741634721886965</v>
+        <v>0.9858539621749572</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7895019588491008</v>
+        <v>0.7727902436403069</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9865067709196026</v>
+        <v>0.7809724960682949</v>
       </c>
       <c r="E14" t="n">
-        <v>0.934881990372442</v>
+        <v>0.9146434848531733</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9656750863332194</v>
+        <v>0.9358587051456949</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1727689804404583</v>
+        <v>0.09459462007257587</v>
       </c>
       <c r="H14" t="n">
-        <v>1.40760137043042</v>
+        <v>1.519352686981997</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1092381047896848</v>
+        <v>0.2969229877733993</v>
       </c>
       <c r="J14" t="n">
-        <v>0.902353160920668</v>
+        <v>0.2336538221705392</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5057956328551764</v>
+        <v>0.2652883318090481</v>
       </c>
       <c r="L14" t="n">
-        <v>1.115573181472561</v>
+        <v>0.4232084058742989</v>
       </c>
       <c r="M14" t="n">
-        <v>0.415654881410598</v>
+        <v>0.3075623840338345</v>
       </c>
       <c r="N14" t="n">
-        <v>1.012654625866761</v>
+        <v>1.006928671587776</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4333501702364687</v>
+        <v>0.32065595146406</v>
       </c>
       <c r="P14" t="n">
-        <v>149.5115999001324</v>
+        <v>150.7163093496205</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.489535115511</v>
+        <v>239.6942445649991</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9747098630577367</v>
+        <v>0.9863745043094543</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7892150750203608</v>
+        <v>0.771876816300171</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9865613444744469</v>
+        <v>0.7984143108195734</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9376537947099616</v>
+        <v>0.9191670288363465</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9669933717760163</v>
+        <v>0.9402140459682071</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1691152621832879</v>
+        <v>0.09111375242231816</v>
       </c>
       <c r="H15" t="n">
-        <v>1.409519763914182</v>
+        <v>1.525460779811432</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1087962897380538</v>
+        <v>0.2732781228355485</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8639437190516724</v>
+        <v>0.2212711312932599</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4863700043948632</v>
+        <v>0.2472746464930812</v>
       </c>
       <c r="L15" t="n">
-        <v>1.127808331331585</v>
+        <v>0.410490997586309</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4112362607836132</v>
+        <v>0.3018505464999495</v>
       </c>
       <c r="N15" t="n">
-        <v>1.012387005849272</v>
+        <v>1.006673712174961</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4287434397815875</v>
+        <v>0.3147009491812238</v>
       </c>
       <c r="P15" t="n">
-        <v>149.5543495435581</v>
+        <v>150.7912930529584</v>
       </c>
       <c r="Q15" t="n">
-        <v>238.5322847589368</v>
+        <v>239.7692282683371</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9752686427151508</v>
+        <v>0.9868385098391309</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7888431213725915</v>
+        <v>0.7707550035006797</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9866432142428022</v>
+        <v>0.8159533196168488</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9407186953819934</v>
+        <v>0.9240088840669778</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9684569685604778</v>
+        <v>0.9446906746485518</v>
       </c>
       <c r="G16" t="n">
-        <v>0.165378700041216</v>
+        <v>0.08801094530882142</v>
       </c>
       <c r="H16" t="n">
-        <v>1.412007019669505</v>
+        <v>1.532962347167103</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1081334907681839</v>
+        <v>0.249501497520516</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8214727832056022</v>
+        <v>0.2080170993182271</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4648031369868931</v>
+        <v>0.2287593147175878</v>
       </c>
       <c r="L16" t="n">
-        <v>1.140468433415133</v>
+        <v>0.3963631005532613</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4066678005955426</v>
+        <v>0.2966663872244738</v>
       </c>
       <c r="N16" t="n">
-        <v>1.012113317853804</v>
+        <v>1.006446444160426</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4239804907852944</v>
+        <v>0.309296089512702</v>
       </c>
       <c r="P16" t="n">
-        <v>149.5990345663085</v>
+        <v>150.8605881874579</v>
       </c>
       <c r="Q16" t="n">
-        <v>238.5769697816872</v>
+        <v>239.8385234028366</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9758280292192895</v>
+        <v>0.9872128167360695</v>
       </c>
       <c r="C17" t="n">
-        <v>0.788362668308987</v>
+        <v>0.7693764001582427</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9867614488802638</v>
+        <v>0.8331582874492763</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9440996811650906</v>
+        <v>0.9291666489600038</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9700791771218167</v>
+        <v>0.9492171083300127</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1616380799123026</v>
+        <v>0.08550795336546825</v>
       </c>
       <c r="H17" t="n">
-        <v>1.41521981151811</v>
+        <v>1.542181074065864</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1071762901129623</v>
+        <v>0.2261777123262031</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7746217933511084</v>
+        <v>0.1938983003133761</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4408990417320353</v>
+        <v>0.2100379895069472</v>
       </c>
       <c r="L17" t="n">
-        <v>1.153355095084977</v>
+        <v>0.3806663304442333</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4020423857161115</v>
+        <v>0.2924174299960046</v>
       </c>
       <c r="N17" t="n">
-        <v>1.011839332627287</v>
+        <v>1.006263110170088</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4191581624185172</v>
+        <v>0.3048662453784629</v>
       </c>
       <c r="P17" t="n">
-        <v>149.6447910352659</v>
+        <v>150.9182917710947</v>
       </c>
       <c r="Q17" t="n">
-        <v>238.6227262506445</v>
+        <v>239.8962269864733</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9763706106161166</v>
+        <v>0.9874539750290292</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7877437394075603</v>
+        <v>0.7676813887613119</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9869273402985423</v>
+        <v>0.8494423152461134</v>
       </c>
       <c r="E18" t="n">
-        <v>0.947816829651251</v>
+        <v>0.9346279684739484</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9718725397992036</v>
+        <v>0.9536930434626048</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1580098356133614</v>
+        <v>0.08389532675001465</v>
       </c>
       <c r="H18" t="n">
-        <v>1.419358591931857</v>
+        <v>1.55351562308195</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1058332710308993</v>
+        <v>0.2041023925621174</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7231125303179998</v>
+        <v>0.1789485548096771</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4144729006744495</v>
+        <v>0.1915255262442701</v>
       </c>
       <c r="L18" t="n">
-        <v>1.166189564719949</v>
+        <v>0.3632340240058884</v>
       </c>
       <c r="M18" t="n">
-        <v>0.397504510179899</v>
+        <v>0.2896469001215353</v>
       </c>
       <c r="N18" t="n">
-        <v>1.011573578473739</v>
+        <v>1.006144991822516</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4144271001260307</v>
+        <v>0.30197776831145</v>
       </c>
       <c r="P18" t="n">
-        <v>149.6901959943504</v>
+        <v>150.956370734597</v>
       </c>
       <c r="Q18" t="n">
-        <v>238.668131209729</v>
+        <v>239.9343059499756</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9768719386454486</v>
+        <v>0.9875060055704024</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7869479842204676</v>
+        <v>0.7655965085466849</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9871548797109989</v>
+        <v>0.8640240861314653</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9518860234328813</v>
+        <v>0.9403701662794191</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9738483679607596</v>
+        <v>0.9579829660995428</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1546574527728154</v>
+        <v>0.0835473982802736</v>
       </c>
       <c r="H19" t="n">
-        <v>1.424679810532061</v>
+        <v>1.567457226677151</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1039911638500601</v>
+        <v>0.1843347245725488</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6667249058765602</v>
+        <v>0.1632299366983402</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3853580348633102</v>
+        <v>0.1737824104788612</v>
       </c>
       <c r="L19" t="n">
-        <v>1.178595797736927</v>
+        <v>0.3438741770884407</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3932651176659524</v>
+        <v>0.2890456681569084</v>
       </c>
       <c r="N19" t="n">
-        <v>1.011328030051209</v>
+        <v>1.006119507475721</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4100072278960131</v>
+        <v>0.3013509406573671</v>
       </c>
       <c r="P19" t="n">
-        <v>149.7330851795761</v>
+        <v>150.9646823281983</v>
       </c>
       <c r="Q19" t="n">
-        <v>238.7110203949548</v>
+        <v>239.9426175435769</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9772975683992351</v>
+        <v>0.9872969749418418</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7859259130964256</v>
+        <v>0.7630312481157526</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9874618925250012</v>
+        <v>0.8758734129705562</v>
       </c>
       <c r="E20" t="n">
-        <v>0.956313988966868</v>
+        <v>0.9463562064751286</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9760147210503579</v>
+        <v>0.9619058108924778</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1518112646494005</v>
+        <v>0.08494518705595613</v>
       </c>
       <c r="H20" t="n">
-        <v>1.431514404844735</v>
+        <v>1.584611134990734</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1015056581384231</v>
+        <v>0.1682712737957759</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6053657101810302</v>
+        <v>0.1468438275772251</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3534356841597267</v>
+        <v>0.1575575283116484</v>
       </c>
       <c r="L20" t="n">
-        <v>1.190043702680522</v>
+        <v>0.322387017544129</v>
       </c>
       <c r="M20" t="n">
-        <v>0.389629650629159</v>
+        <v>0.2914535761591477</v>
       </c>
       <c r="N20" t="n">
-        <v>1.011119558335069</v>
+        <v>1.006221889824404</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4062169915010092</v>
+        <v>0.3038613582883185</v>
       </c>
       <c r="P20" t="n">
-        <v>149.7702344191945</v>
+        <v>150.931498177335</v>
       </c>
       <c r="Q20" t="n">
-        <v>238.7481696345732</v>
+        <v>239.9094333927136</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9775994131904111</v>
+        <v>0.9867351486827635</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7846137245950746</v>
+        <v>0.7598740283067759</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9878700925525555</v>
+        <v>0.8836504033797893</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9610929474566416</v>
+        <v>0.9525318119350674</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9783739063404752</v>
+        <v>0.9652239711420064</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1497928271409392</v>
+        <v>0.0887021218373846</v>
       </c>
       <c r="H21" t="n">
-        <v>1.440289015395342</v>
+        <v>1.605723478391022</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09820096382696876</v>
+        <v>0.1577284552604627</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5391427355566516</v>
+        <v>0.129938804950073</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3186718496918102</v>
+        <v>0.1438336208153618</v>
       </c>
       <c r="L21" t="n">
-        <v>1.19982676490514</v>
+        <v>0.2985364355051733</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3870307831955221</v>
+        <v>0.297829014431745</v>
       </c>
       <c r="N21" t="n">
-        <v>1.01097171598837</v>
+        <v>1.006497070032932</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4035074849003252</v>
+        <v>0.3105082121671569</v>
       </c>
       <c r="P21" t="n">
-        <v>149.7970041838994</v>
+        <v>150.8449429368979</v>
       </c>
       <c r="Q21" t="n">
-        <v>238.7749393992781</v>
+        <v>239.8228781522765</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9777109249996816</v>
+        <v>0.9857039838912079</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7829286553234047</v>
+        <v>0.7559878403800994</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9884054482643018</v>
+        <v>0.885626083050444</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9661928206414205</v>
+        <v>0.9588196569402537</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9809189147289499</v>
+        <v>0.9676285178503212</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1490471471588824</v>
+        <v>0.09559752554659351</v>
       </c>
       <c r="H22" t="n">
-        <v>1.451557081374029</v>
+        <v>1.631710434950958</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09386684610088306</v>
+        <v>0.1550501399796709</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4684727824223294</v>
+        <v>0.1127265392413513</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2811698142616062</v>
+        <v>0.1338884180180882</v>
       </c>
       <c r="L22" t="n">
-        <v>1.207065966389098</v>
+        <v>0.3021781907744102</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3860662471116614</v>
+        <v>0.309188495171786</v>
       </c>
       <c r="N22" t="n">
-        <v>1.01091709795934</v>
+        <v>1.007002130339</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4025018865185096</v>
+        <v>0.3223512895196682</v>
       </c>
       <c r="P22" t="n">
-        <v>149.8069851984061</v>
+        <v>150.6952166853272</v>
       </c>
       <c r="Q22" t="n">
-        <v>238.7849204137847</v>
+        <v>239.6731519007058</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9775400501970414</v>
+        <v>0.9840565801182833</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7807630748069131</v>
+        <v>0.7512045444726289</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9890979720260108</v>
+        <v>0.8795964703315134</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9715492631327198</v>
+        <v>0.9651134633067119</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9836277356828268</v>
+        <v>0.9687231425247236</v>
       </c>
       <c r="G23" t="n">
-        <v>0.150189787750944</v>
+        <v>0.1066137221617374</v>
       </c>
       <c r="H23" t="n">
-        <v>1.466038328259389</v>
+        <v>1.663696356709266</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08826033169279229</v>
+        <v>0.1632241390961453</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3942474975747386</v>
+        <v>0.0954979549792757</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2412539146337655</v>
+        <v>0.1293610514519964</v>
       </c>
       <c r="L23" t="n">
-        <v>1.210476028899932</v>
+        <v>0.3274591353922585</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3875432721012507</v>
+        <v>0.3265175679220605</v>
       </c>
       <c r="N23" t="n">
-        <v>1.011000791740225</v>
+        <v>1.007809021982882</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4040417915197689</v>
+        <v>0.3404180967730477</v>
       </c>
       <c r="P23" t="n">
-        <v>149.7917110659386</v>
+        <v>150.47708609963</v>
       </c>
       <c r="Q23" t="n">
-        <v>238.7696462813172</v>
+        <v>239.4550213150086</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9769598942587788</v>
+        <v>0.9816083195167666</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7779760769815824</v>
+        <v>0.7453178162818095</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9899794369099819</v>
+        <v>0.8627791133713767</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9770475897556523</v>
+        <v>0.9712693462585246</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9864551727255679</v>
+        <v>0.9680041720421755</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1540692931814781</v>
+        <v>0.1229852520772831</v>
       </c>
       <c r="H24" t="n">
-        <v>1.48467499555032</v>
+        <v>1.703060935227166</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08112419305689329</v>
+        <v>0.1860224625277659</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3180560962042985</v>
+        <v>0.07864692049114898</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1995901446305959</v>
+        <v>0.1323347126536979</v>
       </c>
       <c r="L24" t="n">
-        <v>1.208408333056415</v>
+        <v>0.3556359793206669</v>
       </c>
       <c r="M24" t="n">
-        <v>0.392516615166133</v>
+        <v>0.3506925321093723</v>
       </c>
       <c r="N24" t="n">
-        <v>1.011284949750802</v>
+        <v>1.009008170032604</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4092268600951626</v>
+        <v>0.3656222392348882</v>
       </c>
       <c r="P24" t="n">
-        <v>149.7407056440887</v>
+        <v>150.1913816652184</v>
       </c>
       <c r="Q24" t="n">
-        <v>238.7186408594673</v>
+        <v>239.1693168805971</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9757957726812186</v>
+        <v>0.9781286293370387</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7743823361421074</v>
+        <v>0.738075890194363</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9910800827028515</v>
+        <v>0.8316947467805482</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9825008005826159</v>
+        <v>0.9770955682424558</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9893216060069218</v>
+        <v>0.9648379989316571</v>
       </c>
       <c r="G25" t="n">
-        <v>0.16185377953091</v>
+        <v>0.1462539563316243</v>
       </c>
       <c r="H25" t="n">
-        <v>1.508706357091545</v>
+        <v>1.751487728319923</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07221361577836095</v>
+        <v>0.2281617502222936</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2424898733571724</v>
+        <v>0.06269829567887945</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1573517445677667</v>
+        <v>0.1454300014939993</v>
       </c>
       <c r="L25" t="n">
-        <v>1.198749564913355</v>
+        <v>0.3869718613672852</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4023105511056228</v>
+        <v>0.38243163615426</v>
       </c>
       <c r="N25" t="n">
-        <v>1.011855131747974</v>
+        <v>1.010712508079818</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4194377441638389</v>
+        <v>0.3987125426479696</v>
       </c>
       <c r="P25" t="n">
-        <v>149.6421238936451</v>
+        <v>149.8448214827918</v>
       </c>
       <c r="Q25" t="n">
-        <v>238.6200591090237</v>
+        <v>238.8227566981704</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9738080124237675</v>
+        <v>0.9733314585948984</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7697373480692102</v>
+        <v>0.7291718839429857</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9924191205636704</v>
+        <v>0.7820481253023462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9876207234811437</v>
+        <v>0.9823359481098956</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9920968152225261</v>
+        <v>0.9584359058582812</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1751459415252802</v>
+        <v>0.1783326591732562</v>
       </c>
       <c r="H26" t="n">
-        <v>1.539767413723212</v>
+        <v>1.811028859122063</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06137307069564302</v>
+        <v>0.2954648190951381</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1715420873670811</v>
+        <v>0.0483533475100533</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1164575790313621</v>
+        <v>0.1719090520866016</v>
       </c>
       <c r="L26" t="n">
-        <v>1.178791759277298</v>
+        <v>0.4216822941151189</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4185044104012288</v>
+        <v>0.4222945171006323</v>
       </c>
       <c r="N26" t="n">
-        <v>1.012828728608767</v>
+        <v>1.013062142729029</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4363210095755689</v>
+        <v>0.4402724689637685</v>
       </c>
       <c r="P26" t="n">
-        <v>149.48427140206</v>
+        <v>149.4482092021965</v>
       </c>
       <c r="Q26" t="n">
-        <v>238.4622066174386</v>
+        <v>238.4261444175752</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_6.xlsx
@@ -518,1266 +518,1266 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_24</t>
+          <t>model_16_6_7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9801559008304895</v>
+        <v>0.9641896957652326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7765015707264591</v>
+        <v>0.810554955642665</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6311010996553035</v>
+        <v>0.7588820611430008</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8814755852197509</v>
+        <v>0.9597235549301399</v>
       </c>
       <c r="F2" t="n">
-        <v>0.900321279407187</v>
+        <v>0.8359425571790402</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1326975825201915</v>
+        <v>0.239463669309179</v>
       </c>
       <c r="H2" t="n">
-        <v>1.494535025667808</v>
+        <v>1.266819883931719</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5000950187097174</v>
+        <v>1.305236906185071</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3244472022585977</v>
+        <v>0.1149475011956089</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4122710893659597</v>
+        <v>0.7100924475120832</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5052451007637799</v>
+        <v>0.4351998370729273</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3642767938260568</v>
+        <v>0.4893502521805614</v>
       </c>
       <c r="N2" t="n">
-        <v>1.009719558776903</v>
+        <v>1.017539740849682</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3797848110961503</v>
+        <v>0.5101829055105577</v>
       </c>
       <c r="P2" t="n">
-        <v>150.0393651108845</v>
+        <v>148.8587071350905</v>
       </c>
       <c r="Q2" t="n">
-        <v>239.0173003262631</v>
+        <v>237.8366423504691</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_23</t>
+          <t>model_16_6_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9804893448343946</v>
+        <v>0.9659631694514603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7764181478769717</v>
+        <v>0.810457208134039</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6389841123924124</v>
+        <v>0.7733845650748736</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8830757814423035</v>
+        <v>0.964469341788898</v>
       </c>
       <c r="F3" t="n">
-        <v>0.902142685983668</v>
+        <v>0.8465761649778328</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1304678409307092</v>
+        <v>0.2276044426032788</v>
       </c>
       <c r="H3" t="n">
-        <v>1.495092874646456</v>
+        <v>1.267473521971987</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4894084718033161</v>
+        <v>1.226730912588299</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3200668457857602</v>
+        <v>0.1014031990687704</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4047377535747467</v>
+        <v>0.66406683320351</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5016628322204936</v>
+        <v>0.4369079107449395</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3612033235322028</v>
+        <v>0.4770790737427903</v>
       </c>
       <c r="N3" t="n">
-        <v>1.009556239264786</v>
+        <v>1.016671100676836</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3765804968089264</v>
+        <v>0.4973893176018495</v>
       </c>
       <c r="P3" t="n">
-        <v>150.0732570244758</v>
+        <v>148.9602921151478</v>
       </c>
       <c r="Q3" t="n">
-        <v>239.0511922398544</v>
+        <v>237.9382273305264</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_22</t>
+          <t>model_16_6_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9808508575617411</v>
+        <v>0.9624211272532928</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7763170529869348</v>
+        <v>0.8104456624546678</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6476027382600321</v>
+        <v>0.74483492409285</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8848369933712877</v>
+        <v>0.9553747638294848</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9041379902279201</v>
+        <v>0.8257247326178552</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1280504036583307</v>
+        <v>0.2512900950920295</v>
       </c>
       <c r="H4" t="n">
-        <v>1.495768896641633</v>
+        <v>1.267550727983105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.477724696491186</v>
+        <v>1.381277875144127</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3152457269976787</v>
+        <v>0.1273587919481804</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3964851772023565</v>
+        <v>0.7543184205989557</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4976816601389574</v>
+        <v>0.4340782680565482</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3578413107207309</v>
+        <v>0.5012884350272102</v>
       </c>
       <c r="N4" t="n">
-        <v>1.009379171806494</v>
+        <v>1.018405978488183</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3730753561517441</v>
+        <v>0.5226293215164336</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1106626279845</v>
+        <v>148.7622944997699</v>
       </c>
       <c r="Q4" t="n">
-        <v>239.0885978433631</v>
+        <v>237.7402297151485</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_21</t>
+          <t>model_16_6_9</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9812413517551761</v>
+        <v>0.9606871300044898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7761943025576958</v>
+        <v>0.810187773387203</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6570040878695224</v>
+        <v>0.7313706792128947</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8867732952843025</v>
+        <v>0.9513926864133291</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9063194548459591</v>
+        <v>0.8159923060102631</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1254391671887701</v>
+        <v>0.262885342679098</v>
       </c>
       <c r="H5" t="n">
-        <v>1.496589729327167</v>
+        <v>1.269275233364712</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4649798276274905</v>
+        <v>1.454163490434882</v>
       </c>
       <c r="J5" t="n">
-        <v>0.309945319148626</v>
+        <v>0.1387234952570406</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3874626417088873</v>
+        <v>0.7964434379781362</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4932595170706647</v>
+        <v>0.4334268566507668</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3541739222313948</v>
+        <v>0.5127234563379152</v>
       </c>
       <c r="N5" t="n">
-        <v>1.009187909344404</v>
+        <v>1.019255283263107</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3692518393418763</v>
+        <v>0.5345511553580927</v>
       </c>
       <c r="P5" t="n">
-        <v>150.1518687230444</v>
+        <v>148.6720746025147</v>
       </c>
       <c r="Q5" t="n">
-        <v>239.1298039384231</v>
+        <v>237.6500098178934</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_20</t>
+          <t>model_16_6_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9816615104991312</v>
+        <v>0.9677024870714572</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7760450177626084</v>
+        <v>0.810077692353059</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6672352900764251</v>
+        <v>0.7881752172372587</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8888995849302185</v>
+        <v>0.9696312305820409</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9086998567213286</v>
+        <v>0.8575269797844804</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1226295637332898</v>
+        <v>0.2159736176695383</v>
       </c>
       <c r="H6" t="n">
-        <v>1.49758799743931</v>
+        <v>1.27001134574691</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4511099753338049</v>
+        <v>1.146665094340157</v>
       </c>
       <c r="J6" t="n">
-        <v>0.30412484133325</v>
+        <v>0.08667135723932826</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3776173019166942</v>
+        <v>0.616668246741388</v>
       </c>
       <c r="L6" t="n">
-        <v>0.488341836110327</v>
+        <v>0.4393496398069596</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3501850421324272</v>
+        <v>0.4647296178096876</v>
       </c>
       <c r="N6" t="n">
-        <v>1.008982117306548</v>
+        <v>1.015819190005817</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3650931443589754</v>
+        <v>0.4845141197627765</v>
       </c>
       <c r="P6" t="n">
-        <v>150.1971742896001</v>
+        <v>149.0651980383531</v>
       </c>
       <c r="Q6" t="n">
-        <v>239.1751095049787</v>
+        <v>238.0431332537317</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_19</t>
+          <t>model_16_6_10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.982111393298732</v>
+        <v>0.9590095521587343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7758632907772606</v>
+        <v>0.8098269219221604</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6783359761996894</v>
+        <v>0.7185802941804853</v>
       </c>
       <c r="E7" t="n">
-        <v>0.891231914122156</v>
+        <v>0.9477430312861151</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9112908675704617</v>
+        <v>0.806790793279254</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1196211953808389</v>
+        <v>0.2741033134582012</v>
       </c>
       <c r="H7" t="n">
-        <v>1.498803206627107</v>
+        <v>1.27168824877302</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4360614137107766</v>
+        <v>1.523401319307162</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2977403535256267</v>
+        <v>0.1491394775109692</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3669008836182016</v>
+        <v>0.8362704923538801</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4828823564940727</v>
+        <v>0.4331415841764486</v>
       </c>
       <c r="M7" t="n">
-        <v>0.345862971971327</v>
+        <v>0.5235487689396291</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00876176654756</v>
+        <v>1.020076954044702</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3605870747231986</v>
+        <v>0.545837323928748</v>
       </c>
       <c r="P7" t="n">
-        <v>150.2468504685274</v>
+        <v>148.5885003744904</v>
       </c>
       <c r="Q7" t="n">
-        <v>239.224785683906</v>
+        <v>237.566435589869</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_18</t>
+          <t>model_16_6_11</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9825903052010503</v>
+        <v>0.957403976311999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7756416868370851</v>
+        <v>0.8093982973103303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6903406297200883</v>
+        <v>0.7065224028288035</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8937857596465331</v>
+        <v>0.9443941168260825</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9141033571456099</v>
+        <v>0.7981465156066411</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1164187092848499</v>
+        <v>0.2848398065383169</v>
       </c>
       <c r="H8" t="n">
-        <v>1.500285073195452</v>
+        <v>1.274554463525963</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4197873954871443</v>
+        <v>1.588673960893232</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2907494897705005</v>
+        <v>0.1586971568997755</v>
       </c>
       <c r="K8" t="n">
-        <v>0.355268429528895</v>
+        <v>0.8736856573349564</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4768093449732475</v>
+        <v>0.4331274484745823</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3412018600254838</v>
+        <v>0.5337038565893233</v>
       </c>
       <c r="N8" t="n">
-        <v>1.008527197452547</v>
+        <v>1.020863358541062</v>
       </c>
       <c r="O8" t="n">
-        <v>0.355727529591989</v>
+        <v>0.556424734683619</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3011240478264</v>
+        <v>148.5116566781253</v>
       </c>
       <c r="Q8" t="n">
-        <v>239.279059263205</v>
+        <v>237.489591893504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_17</t>
+          <t>model_16_6_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9830964718882318</v>
+        <v>0.9693565916799392</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7753712245203358</v>
+        <v>0.809321729675811</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7032693944995185</v>
+        <v>0.8030447033915179</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8965772108550757</v>
+        <v>0.975191607499997</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9171458953541871</v>
+        <v>0.8686584786857809</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1130339703169843</v>
+        <v>0.2049126125361682</v>
       </c>
       <c r="H9" t="n">
-        <v>1.50209365595292</v>
+        <v>1.275066471650556</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4022606127880871</v>
+        <v>1.066172526277614</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2831082072842531</v>
+        <v>0.07080224487560864</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3426844945202214</v>
+        <v>0.5684876024293291</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4700583478954726</v>
+        <v>0.4426726236443554</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3362052502817056</v>
+        <v>0.4526727433104054</v>
       </c>
       <c r="N9" t="n">
-        <v>1.008279279075152</v>
+        <v>1.01500901632003</v>
       </c>
       <c r="O9" t="n">
-        <v>0.35051820382701</v>
+        <v>0.471943959154889</v>
       </c>
       <c r="P9" t="n">
-        <v>150.3601337663468</v>
+        <v>149.1703433420768</v>
       </c>
       <c r="Q9" t="n">
-        <v>239.3380689817255</v>
+        <v>238.1482785574554</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_16</t>
+          <t>model_16_6_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9836269021970481</v>
+        <v>0.9558806489452654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7750407223785734</v>
+        <v>0.808928895296704</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7171286236074594</v>
+        <v>0.6952266918352252</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8996230348545511</v>
+        <v>0.9413189430348179</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9204251396958687</v>
+        <v>0.7900691037415631</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1094869803995226</v>
+        <v>0.2950263036539424</v>
       </c>
       <c r="H10" t="n">
-        <v>1.504303725296708</v>
+        <v>1.27769335695248</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3834724531227646</v>
+        <v>1.649820713143644</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2747706080053699</v>
+        <v>0.1674735904314583</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3291215431801364</v>
+        <v>0.9086472479961974</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4625586568905869</v>
+        <v>0.4333210832191601</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3308881690231952</v>
+        <v>0.5431632384964417</v>
       </c>
       <c r="N10" t="n">
-        <v>1.008019476474915</v>
+        <v>1.021609478067625</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3449747634114494</v>
+        <v>0.5662868220621434</v>
       </c>
       <c r="P10" t="n">
-        <v>150.4238992745116</v>
+        <v>148.4413815233773</v>
       </c>
       <c r="Q10" t="n">
-        <v>239.4018344898902</v>
+        <v>237.419316738756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_15</t>
+          <t>model_16_6_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9841766019389553</v>
+        <v>0.9544460353462301</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7746363561272125</v>
+        <v>0.8084391380009333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7318993745391495</v>
+        <v>0.6847038236993521</v>
       </c>
       <c r="E11" t="n">
-        <v>0.902938393949976</v>
+        <v>0.938494126876968</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9239429092851581</v>
+        <v>0.7825576136088277</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1058111356942548</v>
+        <v>0.3046195713964795</v>
       </c>
       <c r="H11" t="n">
-        <v>1.507007724281493</v>
+        <v>1.280968366244424</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3634485957552366</v>
+        <v>1.706783857051432</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2656951868359209</v>
+        <v>0.1755355124337258</v>
       </c>
       <c r="K11" t="n">
-        <v>0.314572051652861</v>
+        <v>0.9411593505933223</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4542200855146063</v>
+        <v>0.4336599924689187</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3252862365582885</v>
+        <v>0.5519235195174051</v>
       </c>
       <c r="N11" t="n">
-        <v>1.007750235785001</v>
+        <v>1.022312145952867</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3391343450839127</v>
+        <v>0.575420046382451</v>
       </c>
       <c r="P11" t="n">
-        <v>150.4921990255758</v>
+        <v>148.3773831756124</v>
       </c>
       <c r="Q11" t="n">
-        <v>239.4701342409545</v>
+        <v>237.355318390991</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_14</t>
+          <t>model_16_6_3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9847384762479857</v>
+        <v>0.970859264280867</v>
       </c>
       <c r="C12" t="n">
-        <v>0.774141209841929</v>
+        <v>0.8080703342162435</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7475322743142085</v>
+        <v>0.8177440460243823</v>
       </c>
       <c r="E12" t="n">
-        <v>0.906538711757694</v>
+        <v>0.9810589561153101</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9276963731915285</v>
+        <v>0.8797848312223828</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1020538796025745</v>
+        <v>0.1948642339345923</v>
       </c>
       <c r="H12" t="n">
-        <v>1.510318769771122</v>
+        <v>1.283434558850829</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3422559727948801</v>
+        <v>0.9866009913183138</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2558397233677263</v>
+        <v>0.05405704651453327</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2990477286642421</v>
+        <v>0.5203292332097129</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4449511909436111</v>
+        <v>0.4470310703473515</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3194587291068667</v>
+        <v>0.4414342917520028</v>
       </c>
       <c r="N12" t="n">
-        <v>1.007475032041803</v>
+        <v>1.014273013413453</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3330587485756805</v>
+        <v>0.4602270634468433</v>
       </c>
       <c r="P12" t="n">
-        <v>150.5645087475303</v>
+        <v>149.2709043982725</v>
       </c>
       <c r="Q12" t="n">
-        <v>239.542443962909</v>
+        <v>238.2488396136511</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_13</t>
+          <t>model_16_6_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9853023056530024</v>
+        <v>0.9531031337367748</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7735344321828141</v>
+        <v>0.8079442121011424</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7639394635059278</v>
+        <v>0.6749463260108109</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9104368333988262</v>
+        <v>0.9358992519750834</v>
       </c>
       <c r="F13" t="n">
-        <v>0.931675160069784</v>
+        <v>0.77560030920542</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09828354977503259</v>
+        <v>0.3135995606424002</v>
       </c>
       <c r="H13" t="n">
-        <v>1.514376294771578</v>
+        <v>1.284277938015249</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3200136902124711</v>
+        <v>1.759603842803934</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2451690555321252</v>
+        <v>0.1829411905011291</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2825914700877083</v>
+        <v>0.9712727622554423</v>
       </c>
       <c r="L13" t="n">
-        <v>0.434650798554732</v>
+        <v>0.4341009427856772</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3135020729995778</v>
+        <v>0.5599996077162913</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00719887070057</v>
+        <v>1.022969893679947</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3268485052859262</v>
+        <v>0.5838399503757711</v>
       </c>
       <c r="P13" t="n">
-        <v>150.6397972259687</v>
+        <v>148.3192767830392</v>
       </c>
       <c r="Q13" t="n">
-        <v>239.6177324413474</v>
+        <v>237.2972119984179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_12</t>
+          <t>model_16_6_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9858539621749572</v>
+        <v>0.9518527574037385</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7727902436403069</v>
+        <v>0.8074553206004724</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7809724960682949</v>
+        <v>0.6659350883638779</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9146434848531733</v>
+        <v>0.9335170060556891</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9358587051456949</v>
+        <v>0.7691799566366405</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09459462007257587</v>
+        <v>0.3219608329388677</v>
       </c>
       <c r="H14" t="n">
-        <v>1.519352686981997</v>
+        <v>1.287547157731368</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2969229877733993</v>
+        <v>1.80838412021895</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2336538221705392</v>
+        <v>0.1897400332290024</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2652883318090481</v>
+        <v>0.9990620767239762</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4232084058742989</v>
+        <v>0.4346051940657257</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3075623840338345</v>
+        <v>0.5674159258770128</v>
       </c>
       <c r="N14" t="n">
-        <v>1.006928671587776</v>
+        <v>1.023582322904291</v>
       </c>
       <c r="O14" t="n">
-        <v>0.32065595146406</v>
+        <v>0.5915719965544894</v>
       </c>
       <c r="P14" t="n">
-        <v>150.7163093496205</v>
+        <v>148.2666507553438</v>
       </c>
       <c r="Q14" t="n">
-        <v>239.6942445649991</v>
+        <v>237.2445859707225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_11</t>
+          <t>model_16_6_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9863745043094543</v>
+        <v>0.9506934309859109</v>
       </c>
       <c r="C15" t="n">
-        <v>0.771876816300171</v>
+        <v>0.806980402534358</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7984143108195734</v>
+        <v>0.6576398170626079</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9191670288363465</v>
+        <v>0.9313316861067209</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9402140459682071</v>
+        <v>0.7632721877941877</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09111375242231816</v>
+        <v>0.3297132540330882</v>
       </c>
       <c r="H15" t="n">
-        <v>1.525460779811432</v>
+        <v>1.290722937026272</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2732781228355485</v>
+        <v>1.853288677302349</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2212711312932599</v>
+        <v>0.1959768564394694</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2472746464930812</v>
+        <v>1.024632766870909</v>
       </c>
       <c r="L15" t="n">
-        <v>0.410490997586309</v>
+        <v>0.4351489089754641</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3018505464999495</v>
+        <v>0.5742066300845786</v>
       </c>
       <c r="N15" t="n">
-        <v>1.006673712174961</v>
+        <v>1.024150156251799</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3147009491812238</v>
+        <v>0.598651795098867</v>
       </c>
       <c r="P15" t="n">
-        <v>150.7912930529584</v>
+        <v>148.2190638588602</v>
       </c>
       <c r="Q15" t="n">
-        <v>239.7692282683371</v>
+        <v>237.1969990742389</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_10</t>
+          <t>model_16_6_17</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9868385098391309</v>
+        <v>0.9496228072305007</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7707550035006797</v>
+        <v>0.8065248933109748</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8159533196168488</v>
+        <v>0.6500275692606914</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9240088840669778</v>
+        <v>0.9293291836738141</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9446906746485518</v>
+        <v>0.7578518078464438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08801094530882142</v>
+        <v>0.3368725200152851</v>
       </c>
       <c r="H16" t="n">
-        <v>1.532962347167103</v>
+        <v>1.293768929300462</v>
       </c>
       <c r="I16" t="n">
-        <v>0.249501497520516</v>
+        <v>1.8944958426306</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2080170993182271</v>
+        <v>0.2016919251452977</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2287593147175878</v>
+        <v>1.048093883887949</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3963631005532613</v>
+        <v>0.4357123242392838</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2966663872244738</v>
+        <v>0.580407201898189</v>
       </c>
       <c r="N16" t="n">
-        <v>1.006446444160426</v>
+        <v>1.024674543397306</v>
       </c>
       <c r="O16" t="n">
-        <v>0.309296089512702</v>
+        <v>0.6051163380915358</v>
       </c>
       <c r="P16" t="n">
-        <v>150.8605881874579</v>
+        <v>148.1761013981634</v>
       </c>
       <c r="Q16" t="n">
-        <v>239.8385234028366</v>
+        <v>237.154036613542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_9</t>
+          <t>model_16_6_2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9872128167360695</v>
+        <v>0.9721241583535901</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7693764001582427</v>
+        <v>0.8061753096163229</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8331582874492763</v>
+        <v>0.8319868156309271</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9291666489600038</v>
+        <v>0.9870082213191749</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9492171083300127</v>
+        <v>0.8906527588894844</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08550795336546825</v>
+        <v>0.1864058814459914</v>
       </c>
       <c r="H17" t="n">
-        <v>1.542181074065864</v>
+        <v>1.296106597076284</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2261777123262031</v>
+        <v>0.9095010101851027</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1938983003133761</v>
+        <v>0.03707806120567378</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2100379895069472</v>
+        <v>0.4732894084762599</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3806663304442333</v>
+        <v>0.4525561330501763</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2924174299960046</v>
+        <v>0.4317474741628391</v>
       </c>
       <c r="N17" t="n">
-        <v>1.006263110170088</v>
+        <v>1.013653473459466</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3048662453784629</v>
+        <v>0.4501278579784321</v>
       </c>
       <c r="P17" t="n">
-        <v>150.9182917710947</v>
+        <v>149.3596576488132</v>
       </c>
       <c r="Q17" t="n">
-        <v>239.8962269864733</v>
+        <v>238.3375928641918</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_8</t>
+          <t>model_16_6_18</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9874539750290292</v>
+        <v>0.9486368436278984</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7676813887613119</v>
+        <v>0.8060923646055784</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8494423152461134</v>
+        <v>0.6430565396858462</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9346279684739484</v>
+        <v>0.9274954612665997</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9536930434626048</v>
+        <v>0.7528880114622609</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08389532675001465</v>
+        <v>0.343465663165832</v>
       </c>
       <c r="H18" t="n">
-        <v>1.55351562308195</v>
+        <v>1.296661250745059</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2041023925621174</v>
+        <v>1.932231919499571</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1789485548096771</v>
+        <v>0.2069253018306058</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1915255262442701</v>
+        <v>1.069578762981442</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3632340240058884</v>
+        <v>0.4362751266101181</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2896469001215353</v>
+        <v>0.5860594365470383</v>
       </c>
       <c r="N18" t="n">
-        <v>1.006144991822516</v>
+        <v>1.025157464345519</v>
       </c>
       <c r="O18" t="n">
-        <v>0.30197776831145</v>
+        <v>0.6110092000711255</v>
       </c>
       <c r="P18" t="n">
-        <v>150.956370734597</v>
+        <v>148.1373362679755</v>
       </c>
       <c r="Q18" t="n">
-        <v>239.9343059499756</v>
+        <v>237.1152714833541</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_7</t>
+          <t>model_16_6_19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9875060055704024</v>
+        <v>0.9477316722391871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7655965085466849</v>
+        <v>0.8056850156323481</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8640240861314653</v>
+        <v>0.6366882160877858</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9403701662794191</v>
+        <v>0.9258195023114614</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9579829660995428</v>
+        <v>0.7483530357532703</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0835473982802736</v>
+        <v>0.3495185484100754</v>
       </c>
       <c r="H19" t="n">
-        <v>1.567457226677151</v>
+        <v>1.29938519520472</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1843347245725488</v>
+        <v>1.966705385182469</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1632299366983402</v>
+        <v>0.2117084273935844</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1737824104788612</v>
+        <v>1.089207570704109</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3438741770884407</v>
+        <v>0.4368258501509977</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2890456681569084</v>
+        <v>0.5912009374232042</v>
       </c>
       <c r="N19" t="n">
-        <v>1.006119507475721</v>
+        <v>1.025600813597133</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3013509406573671</v>
+        <v>0.6163695852839637</v>
       </c>
       <c r="P19" t="n">
-        <v>150.9646823281983</v>
+        <v>148.1023972948861</v>
       </c>
       <c r="Q19" t="n">
-        <v>239.9426175435769</v>
+        <v>237.0803325102647</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_6</t>
+          <t>model_16_6_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9872969749418418</v>
+        <v>0.9469026039562195</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7630312481157526</v>
+        <v>0.8053038054433949</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8758734129705562</v>
+        <v>0.6308808361268443</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9463562064751286</v>
+        <v>0.9242886176363786</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9619058108924778</v>
+        <v>0.744216841504425</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08494518705595613</v>
+        <v>0.3550625318357882</v>
       </c>
       <c r="H20" t="n">
-        <v>1.584611134990734</v>
+        <v>1.301934349493562</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1682712737957759</v>
+        <v>1.998142310569244</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1468438275772251</v>
+        <v>0.2160775162670983</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1575575283116484</v>
+        <v>1.107110326269751</v>
       </c>
       <c r="L20" t="n">
-        <v>0.322387017544129</v>
+        <v>0.4373601167052051</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2914535761591477</v>
+        <v>0.5958712376309064</v>
       </c>
       <c r="N20" t="n">
-        <v>1.006221889824404</v>
+        <v>1.026006887858178</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3038613582883185</v>
+        <v>0.6212387098403621</v>
       </c>
       <c r="P20" t="n">
-        <v>150.931498177335</v>
+        <v>148.0709227180046</v>
       </c>
       <c r="Q20" t="n">
-        <v>239.9094333927136</v>
+        <v>237.0488579333832</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_5</t>
+          <t>model_16_6_21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9867351486827635</v>
+        <v>0.9461447947829269</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7598740283067759</v>
+        <v>0.8049490838397864</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8836504033797893</v>
+        <v>0.6255930012124606</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9525318119350674</v>
+        <v>0.9228926065324897</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9652239711420064</v>
+        <v>0.7404500900608557</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0887021218373846</v>
+        <v>0.3601300052669859</v>
       </c>
       <c r="H21" t="n">
-        <v>1.605723478391022</v>
+        <v>1.304306374490235</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1577284552604627</v>
+        <v>2.026766797477125</v>
       </c>
       <c r="J21" t="n">
-        <v>0.129938804950073</v>
+        <v>0.220061680901167</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1438336208153618</v>
+        <v>1.123414016646377</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2985364355051733</v>
+        <v>0.4378737271906787</v>
       </c>
       <c r="M21" t="n">
-        <v>0.297829014431745</v>
+        <v>0.6001083279433689</v>
       </c>
       <c r="N21" t="n">
-        <v>1.006497070032932</v>
+        <v>1.026378059698158</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3105082121671569</v>
+        <v>0.6256561818594121</v>
       </c>
       <c r="P21" t="n">
-        <v>150.8449429368979</v>
+        <v>148.0425803739611</v>
       </c>
       <c r="Q21" t="n">
-        <v>239.8228781522765</v>
+        <v>237.0205155893398</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_4</t>
+          <t>model_16_6_22</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9857039838912079</v>
+        <v>0.9454533172041136</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7559878403800994</v>
+        <v>0.8046204128942671</v>
       </c>
       <c r="D22" t="n">
-        <v>0.885626083050444</v>
+        <v>0.6207850762191223</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9588196569402537</v>
+        <v>0.9216205510184574</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9676285178503212</v>
+        <v>0.7370241783795676</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09559752554659351</v>
+        <v>0.3647539190204722</v>
       </c>
       <c r="H22" t="n">
-        <v>1.631710434950958</v>
+        <v>1.306504198616312</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1550501399796709</v>
+        <v>2.052793401607964</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1127265392413513</v>
+        <v>0.2236920808152233</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1338884180180882</v>
+        <v>1.138242444841378</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3021781907744102</v>
+        <v>0.4383586839348779</v>
       </c>
       <c r="M22" t="n">
-        <v>0.309188495171786</v>
+        <v>0.6039486062741367</v>
       </c>
       <c r="N22" t="n">
-        <v>1.007002130339</v>
+        <v>1.026716742593903</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3223512895196682</v>
+        <v>0.6296599487891928</v>
       </c>
       <c r="P22" t="n">
-        <v>150.6952166853272</v>
+        <v>148.0170646944708</v>
       </c>
       <c r="Q22" t="n">
-        <v>239.6731519007058</v>
+        <v>236.9949999098494</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_3</t>
+          <t>model_16_6_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9840565801182833</v>
+        <v>0.9448233836048435</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7512045444726289</v>
+        <v>0.8043170118654169</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8795964703315134</v>
+        <v>0.6164187322104433</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9651134633067119</v>
+        <v>0.9204628100573652</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9687231425247236</v>
+        <v>0.7339119909766725</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1066137221617374</v>
+        <v>0.3689662878993685</v>
       </c>
       <c r="H23" t="n">
-        <v>1.663696356709266</v>
+        <v>1.308533042693267</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1632241390961453</v>
+        <v>2.076429607907022</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0954979549792757</v>
+        <v>0.226996231176024</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1293610514519964</v>
+        <v>1.151712975236331</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3274591353922585</v>
+        <v>0.43881332955693</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3265175679220605</v>
+        <v>0.6074259526060509</v>
       </c>
       <c r="N23" t="n">
-        <v>1.007809021982882</v>
+        <v>1.027025281499669</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3404180967730477</v>
+        <v>0.6332853329535559</v>
       </c>
       <c r="P23" t="n">
-        <v>150.47708609963</v>
+        <v>147.9940999996431</v>
       </c>
       <c r="Q23" t="n">
-        <v>239.4550213150086</v>
+        <v>236.9720352150218</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_2</t>
+          <t>model_16_6_24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9816083195167666</v>
+        <v>0.9442502650995676</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7453178162818095</v>
+        <v>0.8040378642852339</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8627791133713767</v>
+        <v>0.6124569679788063</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9712693462585246</v>
+        <v>0.9194103846445955</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9680041720421755</v>
+        <v>0.7310875938309296</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1229852520772831</v>
+        <v>0.3727987339831173</v>
       </c>
       <c r="H24" t="n">
-        <v>1.703060935227166</v>
+        <v>1.310399703847307</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1860224625277659</v>
+        <v>2.097875713963044</v>
       </c>
       <c r="J24" t="n">
-        <v>0.07864692049114898</v>
+        <v>0.229999814813627</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1323347126536979</v>
+        <v>1.163937858469184</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3556359793206669</v>
+        <v>0.4392347986671001</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3506925321093723</v>
+        <v>0.6105724641540243</v>
       </c>
       <c r="N24" t="n">
-        <v>1.009008170032604</v>
+        <v>1.027305992604293</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3656222392348882</v>
+        <v>0.6365657980123033</v>
       </c>
       <c r="P24" t="n">
-        <v>150.1913816652184</v>
+        <v>147.973433184289</v>
       </c>
       <c r="Q24" t="n">
-        <v>239.1693168805971</v>
+        <v>236.9513683996676</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9781286293370387</v>
+        <v>0.9730391449948527</v>
       </c>
       <c r="C25" t="n">
-        <v>0.738075890194363</v>
+        <v>0.8034555073836749</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8316947467805482</v>
+        <v>0.8454587900091953</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9770955682424558</v>
+        <v>0.9926012194552752</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9648379989316571</v>
+        <v>0.9009211482418441</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1462539563316243</v>
+        <v>0.1802873615627424</v>
       </c>
       <c r="H25" t="n">
-        <v>1.751487728319923</v>
+        <v>1.314293927129539</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2281617502222936</v>
+        <v>0.8365735530201506</v>
       </c>
       <c r="J25" t="n">
-        <v>0.06269829567887945</v>
+        <v>0.0211158490784288</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1454300014939993</v>
+        <v>0.4288445749969186</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3869718613672852</v>
+        <v>0.4593533794657877</v>
       </c>
       <c r="M25" t="n">
-        <v>0.38243163615426</v>
+        <v>0.424602592505913</v>
       </c>
       <c r="N25" t="n">
-        <v>1.010712508079818</v>
+        <v>1.013205316737215</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3987125426479696</v>
+        <v>0.4426788039174267</v>
       </c>
       <c r="P25" t="n">
-        <v>149.8448214827918</v>
+        <v>149.4264064958844</v>
       </c>
       <c r="Q25" t="n">
-        <v>238.8227566981704</v>
+        <v>238.4043417112631</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9733314585948984</v>
+        <v>0.9734580263151925</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7291718839429857</v>
+        <v>0.7996936712713929</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7820481253023462</v>
+        <v>0.8578174189796712</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9823359481098956</v>
+        <v>0.9970934104946801</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9584359058582812</v>
+        <v>0.9101304541959448</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1783326591732562</v>
+        <v>0.177486300244859</v>
       </c>
       <c r="H26" t="n">
-        <v>1.811028859122063</v>
+        <v>1.339449342534031</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2954648190951381</v>
+        <v>0.7696729370038536</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0483533475100533</v>
+        <v>0.008295300145243482</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1719090520866016</v>
+        <v>0.3889837890893162</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4216822941151189</v>
+        <v>0.4674424901225818</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4222945171006323</v>
+        <v>0.4212912297269656</v>
       </c>
       <c r="N26" t="n">
-        <v>1.013062142729029</v>
+        <v>1.013000150376232</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4402724689637685</v>
+        <v>0.4392264695695136</v>
       </c>
       <c r="P26" t="n">
-        <v>149.4482092021965</v>
+        <v>149.4577237095289</v>
       </c>
       <c r="Q26" t="n">
-        <v>238.4261444175752</v>
+        <v>238.4356589249075</v>
       </c>
     </row>
   </sheetData>
